--- a/2 - Resultado do processamento/Nao_Encontrados_MyMaps.xlsx
+++ b/2 - Resultado do processamento/Nao_Encontrados_MyMaps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\2 - Resultado do processamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\2 - Resultado do processamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FFCFD5-D706-4F26-87AF-118D69F6BFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D9287D-CEF9-419D-B674-399E19B80EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8835" yWindow="4170" windowWidth="11220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turno 5" sheetId="10" r:id="rId1"/>
@@ -29,15 +29,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
-  <si>
-    <t>COLABORADOR</t>
-  </si>
-  <si>
-    <t>ENDERECO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>TURNO</t>
+  </si>
+  <si>
+    <t>BAIRRO E MUNICIPIO</t>
+  </si>
+  <si>
+    <t>COLABORADOR COMPLETO</t>
+  </si>
+  <si>
+    <t>DENER MOREIRA BARBOSA - RUA INCONSTANTE DEMAIS, 15, NOVA BADEN, 00000-000, BETIM, MG, T1</t>
+  </si>
+  <si>
+    <t>NOVA BADEN, 00000-000, BETIM, MG</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>ODIVAN RAMOS PEDRO - RUA DEMASIADAMENTE IDIOTA, 23, INDUSTRIAL, 00000-000, CONTAGEM, MG, T2</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>WILLIAN MACHADO NETO - RUA RIDICULAMENTE RIDICULO, 444, SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG, T3</t>
+  </si>
+  <si>
+    <t>SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>RAFAEL WASHINGTON VIEIRA - RUA BABAQUICES A PARTE, 444, FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>VANDERSON DOS SANTOS ANDRE - AV. CORNO MANSO DE BH, 444, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>CELVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>T5</t>
   </si>
 </sst>
 </file>
@@ -355,25 +400,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B64344-6418-4EEF-A467-74A26B3AFB64}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -383,24 +439,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D214F4F-2548-47A4-A750-CF08873F64C9}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -410,21 +481,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADC6555-CE4A-4330-A019-1116174F065B}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -434,21 +523,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C79AB0B-602D-4ED4-A0B5-45EDBF1FB569}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -458,21 +565,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C1B8D7-D8A9-4FC7-8E11-C587BC3F8CEB}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/2 - Resultado do processamento/Nao_Encontrados_MyMaps.xlsx
+++ b/2 - Resultado do processamento/Nao_Encontrados_MyMaps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\2 - Resultado do processamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\2 - Resultado do processamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D9287D-CEF9-419D-B674-399E19B80EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41138D5F-439A-4717-8840-62F2FFCD9175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="4170" windowWidth="11220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turno 5" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>TURNO</t>
   </si>
@@ -40,49 +40,40 @@
     <t>COLABORADOR COMPLETO</t>
   </si>
   <si>
-    <t>DENER MOREIRA BARBOSA - RUA INCONSTANTE DEMAIS, 15, NOVA BADEN, 00000-000, BETIM, MG, T1</t>
-  </si>
-  <si>
-    <t>NOVA BADEN, 00000-000, BETIM, MG</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>ODIVAN RAMOS PEDRO - RUA DEMASIADAMENTE IDIOTA, 23, INDUSTRIAL, 00000-000, CONTAGEM, MG, T2</t>
-  </si>
-  <si>
-    <t>INDUSTRIAL, 00000-000, CONTAGEM, MG</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>WILLIAN MACHADO NETO - RUA RIDICULAMENTE RIDICULO, 444, SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG, T3</t>
-  </si>
-  <si>
-    <t>SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>RAFAEL WASHINGTON VIEIRA - RUA BABAQUICES A PARTE, 444, FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+    <t>JULIAN CESAR RESENDE LEAL - AVENIDA PERGENTINO SOUZA SANTOS  771, TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
   </si>
   <si>
     <t>T4</t>
   </si>
   <si>
-    <t>VANDERSON DOS SANTOS ANDRE - AV. CORNO MANSO DE BH, 444, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>CELVIA, 00000-000, VESPASIANO, MG</t>
+    <t>RENATO P. GONÇALVES - RUA ALBERT CHARLEY, 1773, PACIÊNCIA, 00000-000, SABARÁ, MG, T4</t>
+  </si>
+  <si>
+    <t>PACIÊNCIA, 00000-000, SABARÁ, MG</t>
+  </si>
+  <si>
+    <t>ADAIR GOMES DOS SANTOS - R. CEARÁ, 704, SERRA AZUL, 00000-000, VESPASIANO, MG, T4</t>
+  </si>
+  <si>
+    <t>SERRA AZUL, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>CARLOS ROMILDO DE AZEVEDO - RUA JOÃO TEIXEIRA, 40, JARDIM ALTEROSA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>JARDIM ALTEROSA, 00000-000, VESPASIANO, MG</t>
   </si>
   <si>
     <t>T5</t>
+  </si>
+  <si>
+    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154, GAVEA 1, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>GAVEA 1, 00000-000, VESPASIANO, MG</t>
   </si>
 </sst>
 </file>
@@ -400,17 +391,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B64344-6418-4EEF-A467-74A26B3AFB64}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -421,15 +412,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -439,20 +441,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D214F4F-2548-47A4-A750-CF08873F64C9}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -463,15 +465,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -481,20 +505,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADC6555-CE4A-4330-A019-1116174F065B}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -503,17 +527,6 @@
       </c>
       <c r="C1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -523,20 +536,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C79AB0B-602D-4ED4-A0B5-45EDBF1FB569}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -545,17 +558,6 @@
       </c>
       <c r="C1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -565,20 +567,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C1B8D7-D8A9-4FC7-8E11-C587BC3F8CEB}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -587,17 +589,6 @@
       </c>
       <c r="C1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/2 - Resultado do processamento/Nao_Encontrados_MyMaps.xlsx
+++ b/2 - Resultado do processamento/Nao_Encontrados_MyMaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\2 - Resultado do processamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41138D5F-439A-4717-8840-62F2FFCD9175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21CB7D6-D03D-4852-9D42-54766D554A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>TURNO</t>
   </si>
@@ -40,27 +40,15 @@
     <t>COLABORADOR COMPLETO</t>
   </si>
   <si>
-    <t>JULIAN CESAR RESENDE LEAL - AVENIDA PERGENTINO SOUZA SANTOS  771, TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+    <t>ADAIR GOMES DOS SANTOS - R. CEARÁ, 704, SERRA AZUL, 00000-000, VESPASIANO, MG, T4</t>
+  </si>
+  <si>
+    <t>SERRA AZUL, 00000-000, VESPASIANO, MG</t>
   </si>
   <si>
     <t>T4</t>
   </si>
   <si>
-    <t>RENATO P. GONÇALVES - RUA ALBERT CHARLEY, 1773, PACIÊNCIA, 00000-000, SABARÁ, MG, T4</t>
-  </si>
-  <si>
-    <t>PACIÊNCIA, 00000-000, SABARÁ, MG</t>
-  </si>
-  <si>
-    <t>ADAIR GOMES DOS SANTOS - R. CEARÁ, 704, SERRA AZUL, 00000-000, VESPASIANO, MG, T4</t>
-  </si>
-  <si>
-    <t>SERRA AZUL, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
     <t>CARLOS ROMILDO DE AZEVEDO - RUA JOÃO TEIXEIRA, 40, JARDIM ALTEROSA, 00000-000, VESPASIANO, MG, T5</t>
   </si>
   <si>
@@ -68,12 +56,6 @@
   </si>
   <si>
     <t>T5</t>
-  </si>
-  <si>
-    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154, GAVEA 1, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>GAVEA 1, 00000-000, VESPASIANO, MG</t>
   </si>
 </sst>
 </file>
@@ -391,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B64344-6418-4EEF-A467-74A26B3AFB64}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,24 +396,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -441,7 +412,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D214F4F-2548-47A4-A750-CF08873F64C9}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -473,28 +444,6 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/2 - Resultado do processamento/Nao_Encontrados_MyMaps.xlsx
+++ b/2 - Resultado do processamento/Nao_Encontrados_MyMaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\2 - Resultado do processamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21CB7D6-D03D-4852-9D42-54766D554A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA39C98-E120-408C-8600-57B51C1C49CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>TURNO</t>
   </si>
@@ -38,24 +38,6 @@
   </si>
   <si>
     <t>COLABORADOR COMPLETO</t>
-  </si>
-  <si>
-    <t>ADAIR GOMES DOS SANTOS - R. CEARÁ, 704, SERRA AZUL, 00000-000, VESPASIANO, MG, T4</t>
-  </si>
-  <si>
-    <t>SERRA AZUL, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>CARLOS ROMILDO DE AZEVEDO - RUA JOÃO TEIXEIRA, 40, JARDIM ALTEROSA, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>JARDIM ALTEROSA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>T5</t>
   </si>
 </sst>
 </file>
@@ -373,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B64344-6418-4EEF-A467-74A26B3AFB64}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,17 +376,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -412,7 +383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D214F4F-2548-47A4-A750-CF08873F64C9}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -434,17 +405,6 @@
       </c>
       <c r="C1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/2 - Resultado do processamento/Nao_Encontrados_MyMaps.xlsx
+++ b/2 - Resultado do processamento/Nao_Encontrados_MyMaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\2 - Resultado do processamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA39C98-E120-408C-8600-57B51C1C49CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC22ABA6-A6D3-4135-AB53-83CE5052436C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>TURNO</t>
   </si>
@@ -38,6 +38,36 @@
   </si>
   <si>
     <t>COLABORADOR COMPLETO</t>
+  </si>
+  <si>
+    <t>JULIAN CESAR RESENDE LEAL - AVENIDA PERGENTINO SOUZA SANTOS  771, TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>RENATO P. GONÇALVES - RUA ALBERT CHARLEY, 1773, PACIÊNCIA, 00000-000, SABARÁ, MG, T4</t>
+  </si>
+  <si>
+    <t>PACIÊNCIA, 00000-000, SABARÁ, MG</t>
+  </si>
+  <si>
+    <t>CARLOS ROMILDO DE AZEVEDO - RUA JOÃO TEIXEIRA, 40, JARDIM ALTEROSA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>JARDIM ALTEROSA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154, GAVEA 1, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>GAVEA 1, 00000-000, VESPASIANO, MG</t>
   </si>
 </sst>
 </file>
@@ -355,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B64344-6418-4EEF-A467-74A26B3AFB64}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,6 +406,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -383,7 +435,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D214F4F-2548-47A4-A750-CF08873F64C9}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -405,6 +457,28 @@
       </c>
       <c r="C1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
